--- a/excel_files/1.3.1.1c.xlsx
+++ b/excel_files/1.3.1.1c.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Численность населения, получающих ЕПМС, человек</t>
   </si>
@@ -38,9 +38,6 @@
     <t>1.3.1.1c Доля граждан, получающих пенсии/ЕСП</t>
   </si>
   <si>
-    <t>Численность населения, получающих пенсии, человек</t>
-  </si>
-  <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>1.3.1.1с Пенсия/АСЖ алган улгайган жарандардын үлүшү</t>
   </si>
   <si>
-    <t>Пенсия алган калктын саны, адам</t>
-  </si>
-  <si>
     <t>калктын жалпы санына карата, пайыз менен</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
   </si>
   <si>
     <t>Социалдык жөлөкпул алган калктын саны, адам</t>
-  </si>
-  <si>
-    <t>Population receiving pensions, persons</t>
   </si>
   <si>
     <t>to the total population, percent</t>
@@ -170,7 +161,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -214,12 +205,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -235,14 +220,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -526,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,14 +525,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>9</v>
+      <c r="A1" s="19" t="s">
+        <v>8</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>8</v>
+      <c r="C1" s="19" t="s">
+        <v>7</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -579,18 +567,18 @@
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="13"/>
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>7</v>
       </c>
       <c r="D3" s="14">
         <v>2007</v>
@@ -631,318 +619,250 @@
       <c r="P3" s="14">
         <v>2019</v>
       </c>
-      <c r="Q3" s="9"/>
+      <c r="Q3" s="14">
+        <v>2020</v>
+      </c>
       <c r="R3" s="9"/>
     </row>
-    <row r="4" spans="1:18" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8">
+        <v>434382</v>
+      </c>
+      <c r="E4" s="8">
+        <v>361606</v>
+      </c>
+      <c r="F4" s="8">
+        <v>370838</v>
+      </c>
+      <c r="G4" s="8">
+        <v>362068</v>
+      </c>
+      <c r="H4" s="8">
+        <v>376845</v>
+      </c>
+      <c r="I4" s="8">
+        <v>343530</v>
+      </c>
+      <c r="J4" s="8">
+        <v>336228</v>
+      </c>
+      <c r="K4" s="8">
+        <v>310717</v>
+      </c>
+      <c r="L4" s="8">
+        <v>304277</v>
+      </c>
+      <c r="M4" s="8">
+        <v>275907</v>
+      </c>
+      <c r="N4" s="8">
+        <v>291846</v>
+      </c>
+      <c r="O4" s="8">
+        <v>276447</v>
+      </c>
+      <c r="P4" s="8">
+        <v>308770</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>340507</v>
+      </c>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="15">
+        <v>8.2777821713499495</v>
+      </c>
+      <c r="E5" s="15">
+        <v>6.836680906994701</v>
+      </c>
+      <c r="F5" s="15">
+        <v>6.9150161119401767</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="H5" s="15">
+        <v>6.8797214848784689</v>
+      </c>
+      <c r="I5" s="15">
+        <v>6.1876248224027579</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="N5" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="O5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="P5" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8">
-        <v>528719</v>
-      </c>
-      <c r="E4" s="8">
-        <v>558865</v>
-      </c>
-      <c r="F4" s="8">
-        <v>564567</v>
-      </c>
-      <c r="G4" s="8">
-        <v>574816</v>
-      </c>
-      <c r="H4" s="8">
-        <v>593670</v>
-      </c>
-      <c r="I4" s="8">
-        <v>613147</v>
-      </c>
-      <c r="J4" s="8">
-        <v>625354</v>
-      </c>
-      <c r="K4" s="8">
-        <v>634261</v>
-      </c>
-      <c r="L4" s="8">
-        <v>646854</v>
-      </c>
-      <c r="M4" s="8">
-        <v>661202</v>
-      </c>
-      <c r="N4" s="8">
-        <v>673230</v>
-      </c>
-      <c r="O4" s="8">
-        <v>694839</v>
-      </c>
-      <c r="P4" s="8">
-        <v>714937</v>
-      </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="22" t="s">
+      <c r="D6" s="1">
+        <v>58984</v>
+      </c>
+      <c r="E6" s="1">
+        <v>60863</v>
+      </c>
+      <c r="F6" s="1">
+        <v>63069</v>
+      </c>
+      <c r="G6" s="1">
+        <v>67596</v>
+      </c>
+      <c r="H6" s="1">
+        <v>70507</v>
+      </c>
+      <c r="I6" s="1">
+        <v>71266</v>
+      </c>
+      <c r="J6" s="1">
+        <v>74835</v>
+      </c>
+      <c r="K6" s="1">
+        <v>77570</v>
+      </c>
+      <c r="L6" s="1">
+        <v>80544</v>
+      </c>
+      <c r="M6" s="1">
+        <v>84282</v>
+      </c>
+      <c r="N6" s="1">
+        <v>86958</v>
+      </c>
+      <c r="O6" s="1">
+        <v>88778</v>
+      </c>
+      <c r="P6" s="1">
+        <v>93134</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>95391</v>
+      </c>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="23">
-        <v>10.1</v>
-      </c>
-      <c r="E5" s="23">
-        <v>10.6</v>
-      </c>
-      <c r="F5" s="23">
-        <v>10.527480736250681</v>
-      </c>
-      <c r="G5" s="23">
-        <v>10.608790692429487</v>
-      </c>
-      <c r="H5" s="23">
-        <v>10.83810121914262</v>
-      </c>
-      <c r="I5" s="23">
-        <v>11.043936765294978</v>
-      </c>
-      <c r="J5" s="23">
-        <v>10.825697602556534</v>
-      </c>
-      <c r="K5" s="23">
-        <v>10.7591913367493</v>
-      </c>
-      <c r="L5" s="23">
-        <v>10.74601128336667</v>
-      </c>
-      <c r="M5" s="23">
-        <v>10.768411452395688</v>
-      </c>
-      <c r="N5" s="23">
-        <v>10.760093531285511</v>
-      </c>
-      <c r="O5" s="23">
-        <v>10.874700680804445</v>
-      </c>
-      <c r="P5" s="23">
-        <v>10.95936</v>
-      </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8">
-        <v>434382</v>
-      </c>
-      <c r="E6" s="8">
-        <v>361606</v>
-      </c>
-      <c r="F6" s="8">
-        <v>370838</v>
-      </c>
-      <c r="G6" s="8">
-        <v>362068</v>
-      </c>
-      <c r="H6" s="8">
-        <v>376845</v>
-      </c>
-      <c r="I6" s="8">
-        <v>343530</v>
-      </c>
-      <c r="J6" s="8">
-        <v>336228</v>
-      </c>
-      <c r="K6" s="8">
-        <v>310717</v>
-      </c>
-      <c r="L6" s="8">
-        <v>304277</v>
-      </c>
-      <c r="M6" s="8">
-        <v>275907</v>
-      </c>
-      <c r="N6" s="8">
-        <v>291846</v>
-      </c>
-      <c r="O6" s="8">
-        <v>276447</v>
-      </c>
-      <c r="P6" s="8">
-        <v>308770</v>
-      </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-    </row>
-    <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="17">
-        <v>8.2777821713499495</v>
-      </c>
-      <c r="E7" s="17">
-        <v>6.836680906994701</v>
-      </c>
-      <c r="F7" s="17">
-        <v>6.9150161119401767</v>
-      </c>
-      <c r="G7" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="H7" s="17">
-        <v>6.8797214848784689</v>
-      </c>
-      <c r="I7" s="17">
-        <v>6.1876248224027579</v>
-      </c>
-      <c r="J7" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="K7" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="L7" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M7" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="N7" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="O7" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="P7" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="Q7" s="9"/>
+      <c r="D7" s="16">
+        <v>1.1240260959130568</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1.1507024497448008</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1.1760476304045298</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1.2871831196760637</v>
+      </c>
+      <c r="I7" s="16">
+        <v>1.283635404748799</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="P7" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>1.4</v>
+      </c>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1">
-        <v>58984</v>
-      </c>
-      <c r="E8" s="1">
-        <v>60863</v>
-      </c>
-      <c r="F8" s="1">
-        <v>63069</v>
-      </c>
-      <c r="G8" s="1">
-        <v>67596</v>
-      </c>
-      <c r="H8" s="1">
-        <v>70507</v>
-      </c>
-      <c r="I8" s="1">
-        <v>71266</v>
-      </c>
-      <c r="J8" s="1">
-        <v>74835</v>
-      </c>
-      <c r="K8" s="1">
-        <v>77570</v>
-      </c>
-      <c r="L8" s="1">
-        <v>80544</v>
-      </c>
-      <c r="M8" s="1">
-        <v>84282</v>
-      </c>
-      <c r="N8" s="1">
-        <v>86958</v>
-      </c>
-      <c r="O8" s="1">
-        <v>88778</v>
-      </c>
-      <c r="P8" s="1">
-        <v>93134</v>
-      </c>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="18">
-        <v>1.1240260959130568</v>
-      </c>
-      <c r="E9" s="18">
-        <v>1.1507024497448008</v>
-      </c>
-      <c r="F9" s="18">
-        <v>1.1760476304045298</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="H9" s="18">
-        <v>1.2871831196760637</v>
-      </c>
-      <c r="I9" s="18">
-        <v>1.283635404748799</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="K9" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="L9" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="M9" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="N9" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="O9" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="P9" s="6">
-        <v>1.4</v>
-      </c>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="P9" s="17"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
     </row>
@@ -968,7 +888,21 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="P11" s="19"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
     </row>
@@ -992,46 +926,6 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/excel_files/1.3.1.1c.xlsx
+++ b/excel_files/1.3.1.1c.xlsx
@@ -161,7 +161,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -230,6 +230,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,7 +520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -568,9 +574,9 @@
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
@@ -622,7 +628,9 @@
       <c r="Q3" s="14">
         <v>2020</v>
       </c>
-      <c r="R3" s="9"/>
+      <c r="R3" s="24">
+        <v>2021</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -676,7 +684,9 @@
       <c r="Q4" s="21">
         <v>340507</v>
       </c>
-      <c r="R4" s="9"/>
+      <c r="R4" s="21">
+        <v>359547</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -730,7 +740,9 @@
       <c r="Q5" s="21">
         <v>5.0999999999999996</v>
       </c>
-      <c r="R5" s="9"/>
+      <c r="R5" s="21">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -784,7 +796,9 @@
       <c r="Q6" s="22">
         <v>95391</v>
       </c>
-      <c r="R6" s="9"/>
+      <c r="R6" s="21">
+        <v>99075</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
@@ -838,7 +852,9 @@
       <c r="Q7" s="23">
         <v>1.4</v>
       </c>
-      <c r="R7" s="9"/>
+      <c r="R7" s="25">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>

--- a/excel_files/1.3.1.1c.xlsx
+++ b/excel_files/1.3.1.1c.xlsx
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t>Численность населения, получающих ЕПМС, человек</t>
-  </si>
-  <si>
-    <t>к общей численности населения, процентов</t>
-  </si>
-  <si>
-    <t>Численность населения, получающих социальные пособия, человек</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>1.3.1.1c Доля граждан, получающих пенсии/ЕСП</t>
   </si>
@@ -53,22 +44,31 @@
     <t>1.3.1.1с Пенсия/АСЖ алган улгайган жарандардын үлүшү</t>
   </si>
   <si>
-    <t>калктын жалпы санына карата, пайыз менен</t>
-  </si>
-  <si>
-    <t>Аз камсыз болгон үй-бүлөлөргө ай сайын берилүүчү жөлөкпулду алган калктын саны</t>
-  </si>
-  <si>
-    <t>Социалдык жөлөкпул алган калктын саны, адам</t>
-  </si>
-  <si>
-    <t>to the total population, percent</t>
-  </si>
-  <si>
-    <t>Population receiving MBP, people</t>
-  </si>
-  <si>
-    <t>Population receiving social benefits, person</t>
+    <t>Доля населения, получающих пенсии</t>
+  </si>
+  <si>
+    <t>Доля населения, получающих ЕПМС</t>
+  </si>
+  <si>
+    <t>Доля населения, получающих социальные пособия</t>
+  </si>
+  <si>
+    <t>Пенсия алган калктын үлүшү</t>
+  </si>
+  <si>
+    <t>АСЖ алган калктын үлүшү</t>
+  </si>
+  <si>
+    <t>Социалдык пособие алган калктын пайызы</t>
+  </si>
+  <si>
+    <t>Percentage of the population receiving pensions</t>
+  </si>
+  <si>
+    <t>Percentage of the population receiving PPMS</t>
+  </si>
+  <si>
+    <t>Percentage of the population receiving social benefits</t>
   </si>
 </sst>
 </file>
@@ -76,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -161,38 +161,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -203,12 +185,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -223,17 +199,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -518,429 +496,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="40.42578125" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="3" width="37.28515625" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2007</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2008</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2009</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2010</v>
+      </c>
+      <c r="H3" s="8">
+        <v>2011</v>
+      </c>
+      <c r="I3" s="8">
+        <v>2012</v>
+      </c>
+      <c r="J3" s="8">
+        <v>2013</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2014</v>
+      </c>
+      <c r="L3" s="8">
+        <v>2015</v>
+      </c>
+      <c r="M3" s="8">
+        <v>2016</v>
+      </c>
+      <c r="N3" s="8">
+        <v>2017</v>
+      </c>
+      <c r="O3" s="8">
+        <v>2018</v>
+      </c>
+      <c r="P3" s="8">
+        <v>2019</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>2020</v>
+      </c>
+      <c r="R3" s="8">
+        <v>2021</v>
+      </c>
+      <c r="S3" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="13">
+        <v>10.1</v>
+      </c>
+      <c r="E4" s="13">
+        <v>10.6</v>
+      </c>
+      <c r="F4" s="13">
+        <v>10.527480736250681</v>
+      </c>
+      <c r="G4" s="13">
+        <v>10.608790692429487</v>
+      </c>
+      <c r="H4" s="13">
+        <v>10.83810121914262</v>
+      </c>
+      <c r="I4" s="13">
+        <v>11.043936765294978</v>
+      </c>
+      <c r="J4" s="13">
+        <v>10.825697602556534</v>
+      </c>
+      <c r="K4" s="13">
+        <v>10.7591913367493</v>
+      </c>
+      <c r="L4" s="13">
+        <v>10.74601128336667</v>
+      </c>
+      <c r="M4" s="13">
+        <v>10.768411452395688</v>
+      </c>
+      <c r="N4" s="13">
+        <v>10.760093531285511</v>
+      </c>
+      <c r="O4" s="13">
+        <v>10.874700680804445</v>
+      </c>
+      <c r="P4" s="13">
+        <v>10.95936</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>11.08687420735556</v>
+      </c>
+      <c r="R4" s="13">
+        <v>11.239761309781672</v>
+      </c>
+      <c r="S4" s="13">
+        <v>11.328549157890119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="14">
+        <v>8.2777821713499495</v>
+      </c>
+      <c r="E5" s="14">
+        <v>6.836680906994701</v>
+      </c>
+      <c r="F5" s="14">
+        <v>6.9150161119401767</v>
+      </c>
+      <c r="G5" s="15">
+        <v>6.6</v>
+      </c>
+      <c r="H5" s="14">
+        <v>6.8797214848784689</v>
+      </c>
+      <c r="I5" s="14">
+        <v>6.1876248224027579</v>
+      </c>
+      <c r="J5" s="15">
+        <v>5.8</v>
+      </c>
+      <c r="K5" s="15">
+        <v>5.3</v>
+      </c>
+      <c r="L5" s="15">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M5" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="N5" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="O5" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="P5" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R5" s="13">
+        <v>5.3287355592729142</v>
+      </c>
+      <c r="S5" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="14">
-        <v>2007</v>
-      </c>
-      <c r="E3" s="14">
-        <v>2008</v>
-      </c>
-      <c r="F3" s="14">
-        <v>2009</v>
-      </c>
-      <c r="G3" s="14">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="14">
-        <v>2011</v>
-      </c>
-      <c r="I3" s="14">
-        <v>2012</v>
-      </c>
-      <c r="J3" s="14">
-        <v>2013</v>
-      </c>
-      <c r="K3" s="14">
-        <v>2014</v>
-      </c>
-      <c r="L3" s="14">
-        <v>2015</v>
-      </c>
-      <c r="M3" s="14">
-        <v>2016</v>
-      </c>
-      <c r="N3" s="14">
-        <v>2017</v>
-      </c>
-      <c r="O3" s="14">
-        <v>2018</v>
-      </c>
-      <c r="P3" s="14">
-        <v>2019</v>
-      </c>
-      <c r="Q3" s="14">
-        <v>2020</v>
-      </c>
-      <c r="R3" s="24">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8">
-        <v>434382</v>
-      </c>
-      <c r="E4" s="8">
-        <v>361606</v>
-      </c>
-      <c r="F4" s="8">
-        <v>370838</v>
-      </c>
-      <c r="G4" s="8">
-        <v>362068</v>
-      </c>
-      <c r="H4" s="8">
-        <v>376845</v>
-      </c>
-      <c r="I4" s="8">
-        <v>343530</v>
-      </c>
-      <c r="J4" s="8">
-        <v>336228</v>
-      </c>
-      <c r="K4" s="8">
-        <v>310717</v>
-      </c>
-      <c r="L4" s="8">
-        <v>304277</v>
-      </c>
-      <c r="M4" s="8">
-        <v>275907</v>
-      </c>
-      <c r="N4" s="8">
-        <v>291846</v>
-      </c>
-      <c r="O4" s="8">
-        <v>276447</v>
-      </c>
-      <c r="P4" s="8">
-        <v>308770</v>
-      </c>
-      <c r="Q4" s="21">
-        <v>340507</v>
-      </c>
-      <c r="R4" s="21">
-        <v>359547</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="15">
-        <v>8.2777821713499495</v>
-      </c>
-      <c r="E5" s="15">
-        <v>6.836680906994701</v>
-      </c>
-      <c r="F5" s="15">
-        <v>6.9150161119401767</v>
-      </c>
-      <c r="G5" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="H5" s="15">
-        <v>6.8797214848784689</v>
-      </c>
-      <c r="I5" s="15">
-        <v>6.1876248224027579</v>
-      </c>
-      <c r="J5" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="K5" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="L5" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M5" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="N5" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="O5" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="P5" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="Q5" s="21">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="R5" s="21">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1">
-        <v>58984</v>
-      </c>
-      <c r="E6" s="1">
-        <v>60863</v>
-      </c>
-      <c r="F6" s="1">
-        <v>63069</v>
-      </c>
-      <c r="G6" s="1">
-        <v>67596</v>
-      </c>
-      <c r="H6" s="1">
-        <v>70507</v>
-      </c>
-      <c r="I6" s="1">
-        <v>71266</v>
-      </c>
-      <c r="J6" s="1">
-        <v>74835</v>
-      </c>
-      <c r="K6" s="1">
-        <v>77570</v>
-      </c>
-      <c r="L6" s="1">
-        <v>80544</v>
-      </c>
-      <c r="M6" s="1">
-        <v>84282</v>
-      </c>
-      <c r="N6" s="1">
-        <v>86958</v>
-      </c>
-      <c r="O6" s="1">
-        <v>88778</v>
-      </c>
-      <c r="P6" s="1">
-        <v>93134</v>
-      </c>
-      <c r="Q6" s="22">
-        <v>95391</v>
-      </c>
-      <c r="R6" s="21">
-        <v>99075</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="D6" s="16">
         <v>1.1240260959130568</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E6" s="16">
         <v>1.1507024497448008</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F6" s="16">
         <v>1.1760476304045298</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G6" s="17">
         <v>1.2</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H6" s="16">
         <v>1.2871831196760637</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I6" s="16">
         <v>1.283635404748799</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J6" s="17">
         <v>1.3</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K6" s="17">
         <v>1.3</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L6" s="17">
         <v>1.3</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M6" s="17">
         <v>1.4</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N6" s="17">
         <v>1.4</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O6" s="17">
         <v>1.4</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P6" s="17">
         <v>1.4</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q6" s="17">
         <v>1.4</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R6" s="17">
+        <v>1.4683601185240429</v>
+      </c>
+      <c r="S6" s="17">
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_files/1.3.1.1c.xlsx
+++ b/excel_files/1.3.1.1c.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>1.3.1.1c Доля граждан, получающих пенсии/ЕСП</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>Percentage of the population receiving social benefits</t>
+  </si>
+  <si>
+    <t>(пайыз менен)</t>
+  </si>
+  <si>
+    <t>(в процентах)</t>
+  </si>
+  <si>
+    <t>(in percent)</t>
   </si>
 </sst>
 </file>
@@ -76,9 +85,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +138,14 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,14 +178,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -199,20 +213,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -496,386 +522,426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="37.28515625" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="3" width="36.28515625" style="5" customWidth="1"/>
+    <col min="4" max="20" width="9" style="5" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D4" s="7">
         <v>2007</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E4" s="7">
         <v>2008</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F4" s="7">
         <v>2009</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G4" s="7">
         <v>2010</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H4" s="7">
         <v>2011</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I4" s="7">
         <v>2012</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J4" s="7">
         <v>2013</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K4" s="7">
         <v>2014</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L4" s="7">
         <v>2015</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M4" s="7">
         <v>2016</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N4" s="7">
         <v>2017</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O4" s="7">
         <v>2018</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P4" s="7">
         <v>2019</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q4" s="7">
         <v>2020</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R4" s="7">
         <v>2021</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S4" s="7">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="T4" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D5" s="12">
         <v>10.1</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E5" s="12">
         <v>10.6</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F5" s="12">
         <v>10.527480736250681</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G5" s="12">
         <v>10.608790692429487</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H5" s="12">
         <v>10.83810121914262</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I5" s="12">
         <v>11.043936765294978</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J5" s="12">
         <v>10.825697602556534</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K5" s="12">
         <v>10.7591913367493</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L5" s="12">
         <v>10.74601128336667</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M5" s="12">
         <v>10.768411452395688</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N5" s="12">
         <v>10.760093531285511</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O5" s="12">
         <v>10.874700680804445</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P5" s="12">
         <v>10.95936</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q5" s="12">
         <v>11.08687420735556</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R5" s="12">
         <v>11.239761309781672</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S5" s="12">
         <v>11.328549157890119</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="T5" s="12">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D6" s="13">
         <v>8.2777821713499495</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E6" s="13">
         <v>6.836680906994701</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F6" s="13">
         <v>6.9150161119401767</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G6" s="14">
         <v>6.6</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H6" s="13">
         <v>6.8797214848784689</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I6" s="13">
         <v>6.1876248224027579</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J6" s="14">
         <v>5.8</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K6" s="14">
         <v>5.3</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L6" s="14">
         <v>5.0999999999999996</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M6" s="14">
         <v>4.5</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N6" s="14">
         <v>4.7</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O6" s="14">
         <v>4.5</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P6" s="14">
         <v>4.7</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q6" s="12">
         <v>5.0999999999999996</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R6" s="12">
         <v>5.3287355592729142</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S6" s="12">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="T6" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D7" s="15">
         <v>1.1240260959130568</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E7" s="15">
         <v>1.1507024497448008</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F7" s="15">
         <v>1.1760476304045298</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G7" s="16">
         <v>1.2</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H7" s="15">
         <v>1.2871831196760637</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I7" s="15">
         <v>1.283635404748799</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J7" s="16">
         <v>1.3</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K7" s="16">
         <v>1.3</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L7" s="16">
         <v>1.3</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M7" s="16">
         <v>1.4</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N7" s="16">
         <v>1.4</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O7" s="16">
         <v>1.4</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P7" s="16">
         <v>1.4</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q7" s="16">
         <v>1.4</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R7" s="16">
         <v>1.4683601185240429</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S7" s="16">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="T7" s="16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
